--- a/testdata/Cogmento-CRM_Web.xlsx
+++ b/testdata/Cogmento-CRM_Web.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="18600" windowHeight="8000"/>
   </bookViews>
   <sheets>
-    <sheet name="create_NewContact" sheetId="1" r:id="rId1"/>
+    <sheet name="createNewContact" sheetId="1" r:id="rId1"/>
+    <sheet name="createNewCompany" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1010,7 +1011,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1050,4 +1051,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>